--- a/Check List Javascript/Javascript checklist.xlsx
+++ b/Check List Javascript/Javascript checklist.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My_Document\Check List Javascript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Checklist" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Reference" sheetId="2" r:id="rId5"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t xml:space="preserve">Mục tìm hiểu </t>
   </si>
   <si>
-    <t>Người tìm hiểu</t>
-  </si>
-  <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Link slide</t>
   </si>
   <si>
     <t>Details</t>
@@ -76,6 +78,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Global
@@ -84,17 +87,19 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://medium.com/@happymishra66/execution-context-in-javascript-319dd72e8e2c
 https://www.freecodecamp.org/news/execution-context-how-javascript-works-behind-the-scenes</t>
@@ -236,68 +241,83 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,7 +325,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,21 +340,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border/>
+  <borders count="5">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -346,181 +358,158 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -710,382 +699,359 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.25"/>
-    <col customWidth="1" min="2" max="2" width="24.88"/>
-    <col customWidth="1" min="3" max="4" width="33.63"/>
-    <col customWidth="1" min="6" max="6" width="54.88"/>
-    <col customWidth="1" min="7" max="7" width="65.0"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="86.5546875" customWidth="1"/>
+    <col min="6" max="6" width="54.88671875" customWidth="1"/>
+    <col min="7" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="110.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="18" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="52.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="B8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="18" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="18" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="18" t="s">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="18" t="s">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="D12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="18" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26" t="s">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="D14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="18" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="27" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="28" t="s">
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="33" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="33" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="33" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="33" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="33" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G7"/>
-    <hyperlink r:id="rId5" ref="G14"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check List Javascript/Javascript checklist.xlsx
+++ b/Check List Javascript/Javascript checklist.xlsx
@@ -433,63 +433,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -726,83 +726,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -811,44 +811,44 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -857,10 +857,10 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -869,22 +869,22 @@
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -893,49 +893,49 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="8" t="s">
         <v>3</v>
       </c>
@@ -945,11 +945,11 @@
       <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -957,11 +957,11 @@
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -969,11 +969,11 @@
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
@@ -981,11 +981,11 @@
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
@@ -993,11 +993,11 @@
       <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
@@ -1005,9 +1005,9 @@
       <c r="A29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
